--- a/AnovaManual.xlsx
+++ b/AnovaManual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED3EC9B-1C0D-4B11-B8B8-C4D089E9BDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4651B3-8A5A-4738-9BCB-08BB2EFEFE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C53720D5-1B46-44AE-9EB8-46186D20A072}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>Group 1</t>
   </si>
@@ -81,13 +81,73 @@
   </si>
   <si>
     <t>df</t>
+  </si>
+  <si>
+    <t>Anova: Single Factor</t>
+  </si>
+  <si>
+    <t>SUMMARY</t>
+  </si>
+  <si>
+    <t>Groups</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Column 1</t>
+  </si>
+  <si>
+    <t>Column 2</t>
+  </si>
+  <si>
+    <t>Column 3</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Source of Variation</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>F crit</t>
+  </si>
+  <si>
+    <t>Between Groups</t>
+  </si>
+  <si>
+    <t>Within Groups</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -101,16 +161,29 @@
       <name val="Aptos Mono"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Mono"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -118,14 +191,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -554,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43F4454-8464-4F6A-B2E8-D23A338F2591}">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="Q68" sqref="Q68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -918,7 +1018,7 @@
         <f>G56/H56</f>
         <v>12.666666666666629</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="5">
         <f>I56/I57</f>
         <v>7.6823104693140571</v>
       </c>
@@ -952,6 +1052,252 @@
         <f>D51^2/D49+G51^2/G49+J51^2/J49</f>
         <v>1132.375</v>
       </c>
+    </row>
+    <row r="62" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C62">
+        <v>6</v>
+      </c>
+      <c r="D62">
+        <v>8</v>
+      </c>
+      <c r="E62">
+        <v>9</v>
+      </c>
+      <c r="J62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C63">
+        <v>6</v>
+      </c>
+      <c r="D63">
+        <v>7</v>
+      </c>
+      <c r="E63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="3:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C64">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <v>6</v>
+      </c>
+      <c r="E64">
+        <v>9</v>
+      </c>
+      <c r="J64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <v>8</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65">
+        <v>9</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>7</v>
+      </c>
+      <c r="D66">
+        <v>6</v>
+      </c>
+      <c r="E66">
+        <v>7</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K66" s="2">
+        <v>8</v>
+      </c>
+      <c r="L66" s="2">
+        <v>45</v>
+      </c>
+      <c r="M66" s="2">
+        <v>5.625</v>
+      </c>
+      <c r="N66" s="2">
+        <v>2.5535714285714284</v>
+      </c>
+    </row>
+    <row r="67" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C67">
+        <v>6</v>
+      </c>
+      <c r="D67">
+        <v>7</v>
+      </c>
+      <c r="E67">
+        <v>8</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K67" s="2">
+        <v>8</v>
+      </c>
+      <c r="L67" s="2">
+        <v>53</v>
+      </c>
+      <c r="M67" s="2">
+        <v>6.625</v>
+      </c>
+      <c r="N67" s="2">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="68" spans="3:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>8</v>
+      </c>
+      <c r="E68">
+        <v>6</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K68" s="3">
+        <v>8</v>
+      </c>
+      <c r="L68" s="3">
+        <v>65</v>
+      </c>
+      <c r="M68" s="3">
+        <v>8.125</v>
+      </c>
+      <c r="N68" s="3">
+        <v>1.2678571428571428</v>
+      </c>
+    </row>
+    <row r="69" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="D69">
+        <v>6</v>
+      </c>
+      <c r="E69">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="3:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J71" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="J72" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L72" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M72" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N72" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O72" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P72" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="J73" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K73" s="2">
+        <v>25.333333333333336</v>
+      </c>
+      <c r="L73" s="2">
+        <v>2</v>
+      </c>
+      <c r="M73" s="2">
+        <v>12.666666666666668</v>
+      </c>
+      <c r="N73" s="6">
+        <v>7.6823104693140802</v>
+      </c>
+      <c r="O73" s="2">
+        <v>3.134529874795729E-3</v>
+      </c>
+      <c r="P73" s="2">
+        <v>3.4668001115424172</v>
+      </c>
+    </row>
+    <row r="74" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="J74" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K74" s="2">
+        <v>34.625</v>
+      </c>
+      <c r="L74" s="2">
+        <v>21</v>
+      </c>
+      <c r="M74" s="2">
+        <v>1.6488095238095237</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+    </row>
+    <row r="75" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+    </row>
+    <row r="76" spans="3:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J76" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K76" s="3">
+        <v>59.958333333333336</v>
+      </c>
+      <c r="L76" s="3">
+        <v>23</v>
+      </c>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
